--- a/期末專案/rawdata/中國文化大學.xlsx
+++ b/期末專案/rawdata/中國文化大學.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,76 @@
           <t>採計科目</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>數A</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>數B</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>英聽</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>數甲</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>化學</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>生物</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>公民</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +524,21 @@
           <t>國文(2.00)、歷史(1.75)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,6 +556,26 @@
           <t>國文(2.00)、英文(2.00)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +593,26 @@
           <t>國文(1.00)、英文(1.50)、歷史(2.00)、地理(2.00)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +630,26 @@
           <t>國文(1.00)、英文(2.00)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +667,21 @@
           <t>國文(2.00)、英文(1.00)、化學(2.00)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +699,21 @@
           <t>英文(1.00)、數B(1.00)、歷史(2.00)</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,6 +731,21 @@
           <t>國文(2.00)、英文(2.00)、公民(1.75)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -573,6 +763,26 @@
           <t>國文(2.00)、英文(2.00)、社會(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,6 +800,26 @@
           <t>國文(2.00)、英文(1.00)、數B(2.00)、歷史(2.00)</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,6 +837,21 @@
           <t>國文(2.00)、英文(1.00)、公民(1.75)</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -624,6 +869,31 @@
           <t>國文(2.00)、英文(2.00)、數B(1.00)、社會(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -641,6 +911,21 @@
           <t>國文(2.00)、英文(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -658,6 +943,21 @@
           <t>國文(2.00)、英文(2.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -675,6 +975,21 @@
           <t>國文(2.00)、社會(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -692,6 +1007,21 @@
           <t>國文(1.25)、社會(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -709,6 +1039,21 @@
           <t>國文(1.25)、社會(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +1071,21 @@
           <t>國文(1.50)、社會(2.00)、歷史(2.00)</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -743,6 +1103,21 @@
           <t>國文(2.00)、歷史(1.50)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -760,6 +1135,21 @@
           <t>國文(1.00)、英文(1.50)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -777,6 +1167,21 @@
           <t>國文(1.50)、歷史(1.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -794,6 +1199,21 @@
           <t>國文(1.50)、歷史(1.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -811,6 +1231,21 @@
           <t>國文(1.00)、英文(1.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -828,6 +1263,26 @@
           <t>國文(1.75)、英文(2.00)、數B(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -845,6 +1300,21 @@
           <t>國文(1.75)、英文(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -862,6 +1332,31 @@
           <t>國文(1.50)、英文(1.00)、社會(1.75)、歷史(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -879,6 +1374,21 @@
           <t>國文(1.50)、社會(2.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -896,6 +1406,21 @@
           <t>國文(1.00)、英文(1.00)、公民(1.25)</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -913,6 +1438,26 @@
           <t>國文(2.00)、英文(1.00)、歷史(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -930,6 +1475,26 @@
           <t>國文(2.00)、英文(2.00)、數B(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -947,6 +1512,21 @@
           <t>國文(1.75)、英文(1.75)、地理(1.50)</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -964,6 +1544,21 @@
           <t>國文(1.00)、英文(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -981,6 +1576,21 @@
           <t>國文(1.75)、歷史(2.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -998,6 +1608,21 @@
           <t>國文(2.00)、英文(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1015,6 +1640,21 @@
           <t>國文(2.00)、英文(1.50)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1032,6 +1672,26 @@
           <t>國文(1.50)、英文(1.00)、社會(1.75)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1049,6 +1709,21 @@
           <t>國文(2.00)、英文(1.50)、數甲(2.00)</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1066,6 +1741,31 @@
           <t>國文(1.00)、英文(1.00)、數A(1.50)、自然(2.00)、物理(2.00)</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1083,6 +1783,31 @@
           <t>國文(1.00)、英文(1.00)、自然(2.00)、物理(1.00)、化學(2.00)</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1100,6 +1825,26 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.50)、物理(1.50)</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1117,6 +1862,26 @@
           <t>國文(1.00)、英文(1.50)、物理(1.75)、化學(2.00)</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1134,6 +1899,21 @@
           <t>國文(1.00)、數甲(1.00)、化學(2.00)</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1151,6 +1931,26 @@
           <t>國文(2.00)、英文(2.00)、數A(2.00)、物理(1.00)</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1168,6 +1968,21 @@
           <t>國文(1.00)、數A(2.00)、物理(2.00)</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1185,6 +2000,26 @@
           <t>國文(2.00)、英文(1.00)、數A(2.00)、物理(2.00)</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1202,6 +2037,21 @@
           <t>國文(2.00)、英文(2.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1219,6 +2069,26 @@
           <t>國文(1.00)、英文(1.00)、自然(1.50)、物理(2.00)</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1236,6 +2106,21 @@
           <t>國文(1.00)、英文(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1253,6 +2138,21 @@
           <t>國文(1.25)、數B(1.00)、地理(2.00)</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1270,6 +2170,21 @@
           <t>國文(1.50)、歷史(1.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1287,6 +2202,26 @@
           <t>國文(2.00)、英文(1.00)、化學(1.00)、生物(2.00)</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1304,6 +2239,21 @@
           <t>國文(1.25)、自然(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1321,6 +2271,21 @@
           <t>國文(1.25)、數B(1.00)、化學(2.00)</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1338,6 +2303,26 @@
           <t>國文(1.00)、英文(1.00)、歷史(2.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1355,6 +2340,26 @@
           <t>國文(1.00)、英文(1.00)、社會(1.50)、地理(2.00)</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1372,6 +2377,21 @@
           <t>國文(1.00)、數甲(1.00)、物理(2.00)</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1389,6 +2409,31 @@
           <t>國文(2.00)、英文(2.00)、數A(1.00)、物理(2.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1406,6 +2451,21 @@
           <t>國文(1.00)、自然(2.00)、數甲(2.00)</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1423,6 +2483,21 @@
           <t>歷史(1.75)、地理(2.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1440,6 +2515,21 @@
           <t>國文(1.00)、數甲(1.00)、生物(2.00)</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1457,6 +2547,21 @@
           <t>國文(2.00)、英文(1.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1474,6 +2579,26 @@
           <t>國文(1.00)、英文(2.00)、數B(1.00)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1491,6 +2616,21 @@
           <t>國文(2.00)、英文(1.50)、歷史(1.00)</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1508,6 +2648,21 @@
           <t>國文(2.00)、英文(1.00)、生物(2.00)</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1525,6 +2680,21 @@
           <t>國文(2.00)、英文(2.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1542,6 +2712,21 @@
           <t>國文(1.75)、地理(2.00)、公民(2.00)</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1557,6 +2742,21 @@
       <c r="C67" t="inlineStr">
         <is>
           <t>國文(2.00)、英文(2.00)、物理(1.00)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.00</t>
         </is>
       </c>
     </row>
